--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>53.11151633333333</v>
+        <v>52.55876</v>
       </c>
       <c r="H2">
-        <v>159.334549</v>
+        <v>157.67628</v>
       </c>
       <c r="I2">
-        <v>0.7183308303902657</v>
+        <v>0.4767987874074868</v>
       </c>
       <c r="J2">
-        <v>0.7183308303902658</v>
+        <v>0.4767987874074869</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.316186</v>
+        <v>4.043133999999999</v>
       </c>
       <c r="N2">
-        <v>9.948558</v>
+        <v>12.129402</v>
       </c>
       <c r="O2">
-        <v>0.7638813129544794</v>
+        <v>0.7517044794313785</v>
       </c>
       <c r="P2">
-        <v>0.7638813129544793</v>
+        <v>0.7517044794313784</v>
       </c>
       <c r="Q2">
-        <v>176.1276669033713</v>
+        <v>212.50210955384</v>
       </c>
       <c r="R2">
-        <v>1585.149002130342</v>
+        <v>1912.51898598456</v>
       </c>
       <c r="S2">
-        <v>0.5487194978541976</v>
+        <v>0.3584117842816574</v>
       </c>
       <c r="T2">
-        <v>0.5487194978541976</v>
+        <v>0.3584117842816574</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>53.11151633333333</v>
+        <v>52.55876</v>
       </c>
       <c r="H3">
-        <v>159.334549</v>
+        <v>157.67628</v>
       </c>
       <c r="I3">
-        <v>0.7183308303902657</v>
+        <v>0.4767987874074868</v>
       </c>
       <c r="J3">
-        <v>0.7183308303902658</v>
+        <v>0.4767987874074869</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.28486</v>
       </c>
       <c r="O3">
-        <v>0.09865555829927236</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="P3">
-        <v>0.09865555829927235</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="Q3">
-        <v>22.74695429201556</v>
+        <v>22.51021612453334</v>
       </c>
       <c r="R3">
-        <v>204.72258862814</v>
+        <v>202.5919451208</v>
       </c>
       <c r="S3">
-        <v>0.07086732911573158</v>
+        <v>0.03796633709989415</v>
       </c>
       <c r="T3">
-        <v>0.07086732911573158</v>
+        <v>0.03796633709989416</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.11151633333333</v>
+        <v>52.55876</v>
       </c>
       <c r="H4">
-        <v>159.334549</v>
+        <v>157.67628</v>
       </c>
       <c r="I4">
-        <v>0.7183308303902657</v>
+        <v>0.4767987874074868</v>
       </c>
       <c r="J4">
-        <v>0.7183308303902658</v>
+        <v>0.4767987874074869</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1794703333333333</v>
+        <v>0.3522683333333333</v>
       </c>
       <c r="N4">
-        <v>0.538411</v>
+        <v>1.056805</v>
       </c>
       <c r="O4">
-        <v>0.04134087589268054</v>
+        <v>0.06549416470700518</v>
       </c>
       <c r="P4">
-        <v>0.04134087589268053</v>
+        <v>0.06549416470700517</v>
       </c>
       <c r="Q4">
-        <v>9.53194154018211</v>
+        <v>18.51478678726667</v>
       </c>
       <c r="R4">
-        <v>85.787473861639</v>
+        <v>166.6330810854</v>
       </c>
       <c r="S4">
-        <v>0.02969642570905013</v>
+        <v>0.03122753831456629</v>
       </c>
       <c r="T4">
-        <v>0.02969642570905013</v>
+        <v>0.03122753831456629</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.11151633333333</v>
+        <v>52.55876</v>
       </c>
       <c r="H5">
-        <v>159.334549</v>
+        <v>157.67628</v>
       </c>
       <c r="I5">
-        <v>0.7183308303902657</v>
+        <v>0.4767987874074868</v>
       </c>
       <c r="J5">
-        <v>0.7183308303902658</v>
+        <v>0.4767987874074869</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.417289</v>
+        <v>0.5549326666666667</v>
       </c>
       <c r="N5">
-        <v>1.251867</v>
+        <v>1.664798</v>
       </c>
       <c r="O5">
-        <v>0.09612225285356785</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="P5">
-        <v>0.09612225285356783</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="Q5">
-        <v>22.16285153922033</v>
+        <v>29.16657284349334</v>
       </c>
       <c r="R5">
-        <v>199.465663852983</v>
+        <v>262.49915559144</v>
       </c>
       <c r="S5">
-        <v>0.06904757771128647</v>
+        <v>0.04919312771136902</v>
       </c>
       <c r="T5">
-        <v>0.06904757771128647</v>
+        <v>0.04919312771136902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.561396</v>
       </c>
       <c r="I6">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347728</v>
       </c>
       <c r="J6">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.316186</v>
+        <v>4.043133999999999</v>
       </c>
       <c r="N6">
-        <v>9.948558</v>
+        <v>12.129402</v>
       </c>
       <c r="O6">
-        <v>0.7638813129544794</v>
+        <v>0.7517044794313785</v>
       </c>
       <c r="P6">
-        <v>0.7638813129544793</v>
+        <v>0.7517044794313784</v>
       </c>
       <c r="Q6">
-        <v>13.885308518552</v>
+        <v>16.929135751688</v>
       </c>
       <c r="R6">
-        <v>124.967776666968</v>
+        <v>152.362221765192</v>
       </c>
       <c r="S6">
-        <v>0.04325918608818309</v>
+        <v>0.02855313654931784</v>
       </c>
       <c r="T6">
-        <v>0.04325918608818308</v>
+        <v>0.02855313654931785</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.561396</v>
       </c>
       <c r="I7">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347728</v>
       </c>
       <c r="J7">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.28486</v>
       </c>
       <c r="O7">
-        <v>0.09865555829927236</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="P7">
-        <v>0.09865555829927235</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="Q7">
         <v>1.793292807173334</v>
@@ -883,10 +883,10 @@
         <v>16.13963526456</v>
       </c>
       <c r="S7">
-        <v>0.005586940121097241</v>
+        <v>0.003024615972556316</v>
       </c>
       <c r="T7">
-        <v>0.00558694012109724</v>
+        <v>0.003024615972556317</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.561396</v>
       </c>
       <c r="I8">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347728</v>
       </c>
       <c r="J8">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347729</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1794703333333333</v>
+        <v>0.3522683333333333</v>
       </c>
       <c r="N8">
-        <v>0.538411</v>
+        <v>1.056805</v>
       </c>
       <c r="O8">
-        <v>0.04134087589268054</v>
+        <v>0.06549416470700518</v>
       </c>
       <c r="P8">
-        <v>0.04134087589268053</v>
+        <v>0.06549416470700517</v>
       </c>
       <c r="Q8">
-        <v>0.7514659757506666</v>
+        <v>1.474994011086667</v>
       </c>
       <c r="R8">
-        <v>6.763193781756</v>
+        <v>13.27494609978</v>
       </c>
       <c r="S8">
-        <v>0.002341165588110834</v>
+        <v>0.002487764645858208</v>
       </c>
       <c r="T8">
-        <v>0.002341165588110834</v>
+        <v>0.002487764645858209</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.561396</v>
       </c>
       <c r="I9">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347728</v>
       </c>
       <c r="J9">
-        <v>0.05663076888328195</v>
+        <v>0.03798452361347729</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.417289</v>
+        <v>0.5549326666666667</v>
       </c>
       <c r="N9">
-        <v>1.251867</v>
+        <v>1.664798</v>
       </c>
       <c r="O9">
-        <v>0.09612225285356785</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="P9">
-        <v>0.09612225285356783</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="Q9">
-        <v>1.747244125148</v>
+        <v>2.323576326445334</v>
       </c>
       <c r="R9">
-        <v>15.725197126332</v>
+        <v>20.912186938008</v>
       </c>
       <c r="S9">
-        <v>0.005443477085890789</v>
+        <v>0.003919006445744914</v>
       </c>
       <c r="T9">
-        <v>0.005443477085890789</v>
+        <v>0.003919006445744915</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.61610766666667</v>
+        <v>53.437349</v>
       </c>
       <c r="H10">
-        <v>49.848323</v>
+        <v>160.312047</v>
       </c>
       <c r="I10">
-        <v>0.2247320965784526</v>
+        <v>0.484769108051078</v>
       </c>
       <c r="J10">
-        <v>0.2247320965784526</v>
+        <v>0.4847691080510781</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.316186</v>
+        <v>4.043133999999999</v>
       </c>
       <c r="N10">
-        <v>9.948558</v>
+        <v>12.129402</v>
       </c>
       <c r="O10">
-        <v>0.7638813129544794</v>
+        <v>0.7517044794313785</v>
       </c>
       <c r="P10">
-        <v>0.7638813129544793</v>
+        <v>0.7517044794313784</v>
       </c>
       <c r="Q10">
-        <v>55.10210361869267</v>
+        <v>216.054362611766</v>
       </c>
       <c r="R10">
-        <v>495.918932568234</v>
+        <v>1944.489263505894</v>
       </c>
       <c r="S10">
-        <v>0.1716686489973612</v>
+        <v>0.3644031100119493</v>
       </c>
       <c r="T10">
-        <v>0.1716686489973612</v>
+        <v>0.3644031100119493</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.61610766666667</v>
+        <v>53.437349</v>
       </c>
       <c r="H11">
-        <v>49.848323</v>
+        <v>160.312047</v>
       </c>
       <c r="I11">
-        <v>0.2247320965784526</v>
+        <v>0.484769108051078</v>
       </c>
       <c r="J11">
-        <v>0.2247320965784526</v>
+        <v>0.4847691080510781</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.28486</v>
       </c>
       <c r="O11">
-        <v>0.09865555829927236</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="P11">
-        <v>0.09865555829927235</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="Q11">
-        <v>7.116457365531113</v>
+        <v>22.88650407871334</v>
       </c>
       <c r="R11">
-        <v>64.04811628978001</v>
+        <v>205.97853670842</v>
       </c>
       <c r="S11">
-        <v>0.02217107045571323</v>
+        <v>0.03860099450327009</v>
       </c>
       <c r="T11">
-        <v>0.02217107045571323</v>
+        <v>0.0386009945032701</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.61610766666667</v>
+        <v>53.437349</v>
       </c>
       <c r="H12">
-        <v>49.848323</v>
+        <v>160.312047</v>
       </c>
       <c r="I12">
-        <v>0.2247320965784526</v>
+        <v>0.484769108051078</v>
       </c>
       <c r="J12">
-        <v>0.2247320965784526</v>
+        <v>0.4847691080510781</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1794703333333333</v>
+        <v>0.3522683333333333</v>
       </c>
       <c r="N12">
-        <v>0.538411</v>
+        <v>1.056805</v>
       </c>
       <c r="O12">
-        <v>0.04134087589268054</v>
+        <v>0.06549416470700518</v>
       </c>
       <c r="P12">
-        <v>0.04134087589268053</v>
+        <v>0.06549416470700517</v>
       </c>
       <c r="Q12">
-        <v>2.982098381639222</v>
+        <v>18.82428586998167</v>
       </c>
       <c r="R12">
-        <v>26.838885434753</v>
+        <v>169.418572829835</v>
       </c>
       <c r="S12">
-        <v>0.009290621713751704</v>
+        <v>0.0317495478075653</v>
       </c>
       <c r="T12">
-        <v>0.009290621713751702</v>
+        <v>0.0317495478075653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.61610766666667</v>
+        <v>53.437349</v>
       </c>
       <c r="H13">
-        <v>49.848323</v>
+        <v>160.312047</v>
       </c>
       <c r="I13">
-        <v>0.2247320965784526</v>
+        <v>0.484769108051078</v>
       </c>
       <c r="J13">
-        <v>0.2247320965784526</v>
+        <v>0.4847691080510781</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.417289</v>
+        <v>0.5549326666666667</v>
       </c>
       <c r="N13">
-        <v>1.251867</v>
+        <v>1.664798</v>
       </c>
       <c r="O13">
-        <v>0.09612225285356785</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="P13">
-        <v>0.09612225285356783</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="Q13">
-        <v>6.933718952115668</v>
+        <v>29.65413058016734</v>
       </c>
       <c r="R13">
-        <v>62.403470569041</v>
+        <v>266.887175221506</v>
       </c>
       <c r="S13">
-        <v>0.02160175541162644</v>
+        <v>0.05001545572829339</v>
       </c>
       <c r="T13">
-        <v>0.02160175541162644</v>
+        <v>0.0500154557282934</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.02264733333333334</v>
+        <v>0.049338</v>
       </c>
       <c r="H14">
-        <v>0.067942</v>
+        <v>0.148014</v>
       </c>
       <c r="I14">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577863</v>
       </c>
       <c r="J14">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.316186</v>
+        <v>4.043133999999999</v>
       </c>
       <c r="N14">
-        <v>9.948558</v>
+        <v>12.129402</v>
       </c>
       <c r="O14">
-        <v>0.7638813129544794</v>
+        <v>0.7517044794313785</v>
       </c>
       <c r="P14">
-        <v>0.7638813129544793</v>
+        <v>0.7517044794313784</v>
       </c>
       <c r="Q14">
-        <v>0.07510276973733335</v>
+        <v>0.199480145292</v>
       </c>
       <c r="R14">
-        <v>0.6759249276360001</v>
+        <v>1.795321307628</v>
       </c>
       <c r="S14">
-        <v>0.000233980014737481</v>
+        <v>0.0003364485884539211</v>
       </c>
       <c r="T14">
-        <v>0.000233980014737481</v>
+        <v>0.0003364485884539212</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.02264733333333334</v>
+        <v>0.049338</v>
       </c>
       <c r="H15">
-        <v>0.067942</v>
+        <v>0.148014</v>
       </c>
       <c r="I15">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577863</v>
       </c>
       <c r="J15">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.28486</v>
       </c>
       <c r="O15">
-        <v>0.09865555829927236</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="P15">
-        <v>0.09865555829927235</v>
+        <v>0.07962758736516451</v>
       </c>
       <c r="Q15">
-        <v>0.009699550902222224</v>
+        <v>0.02113080756</v>
       </c>
       <c r="R15">
-        <v>0.08729595812000002</v>
+        <v>0.19017726804</v>
       </c>
       <c r="S15">
-        <v>3.021860673030201E-05</v>
+        <v>3.563978944394004E-05</v>
       </c>
       <c r="T15">
-        <v>3.0218606730302E-05</v>
+        <v>3.563978944394004E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.02264733333333334</v>
+        <v>0.049338</v>
       </c>
       <c r="H16">
-        <v>0.067942</v>
+        <v>0.148014</v>
       </c>
       <c r="I16">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577863</v>
       </c>
       <c r="J16">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1794703333333333</v>
+        <v>0.3522683333333333</v>
       </c>
       <c r="N16">
-        <v>0.538411</v>
+        <v>1.056805</v>
       </c>
       <c r="O16">
-        <v>0.04134087589268054</v>
+        <v>0.06549416470700518</v>
       </c>
       <c r="P16">
-        <v>0.04134087589268053</v>
+        <v>0.06549416470700517</v>
       </c>
       <c r="Q16">
-        <v>0.004064524462444445</v>
+        <v>0.01738021503</v>
       </c>
       <c r="R16">
-        <v>0.036580720162</v>
+        <v>0.15642193527</v>
       </c>
       <c r="S16">
-        <v>1.266288176787248E-05</v>
+        <v>2.931393901538148E-05</v>
       </c>
       <c r="T16">
-        <v>1.266288176787248E-05</v>
+        <v>2.931393901538149E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.02264733333333334</v>
+        <v>0.049338</v>
       </c>
       <c r="H17">
-        <v>0.067942</v>
+        <v>0.148014</v>
       </c>
       <c r="I17">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577863</v>
       </c>
       <c r="J17">
-        <v>0.0003063041479997877</v>
+        <v>0.0004475809279577865</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.417289</v>
+        <v>0.5549326666666667</v>
       </c>
       <c r="N17">
-        <v>1.251867</v>
+        <v>1.664798</v>
       </c>
       <c r="O17">
-        <v>0.09612225285356785</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="P17">
-        <v>0.09612225285356783</v>
+        <v>0.1031737684964519</v>
       </c>
       <c r="Q17">
-        <v>0.009450483079333334</v>
+        <v>0.027379267908</v>
       </c>
       <c r="R17">
-        <v>0.085054347714</v>
+        <v>0.2464134111720001</v>
       </c>
       <c r="S17">
-        <v>2.944264476413227E-05</v>
+        <v>4.617861104454376E-05</v>
       </c>
       <c r="T17">
-        <v>2.944264476413226E-05</v>
+        <v>4.617861104454376E-05</v>
       </c>
     </row>
   </sheetData>
